--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\projects\route-66\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01_active-projects\route-66\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E39992-C102-4101-B640-806C65F0A92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C964C58-B9B4-4AEC-A47D-B2E3EC787030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25800" yWindow="1560" windowWidth="21600" windowHeight="11760" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25800" yWindow="1560" windowWidth="21600" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOS" sheetId="5" r:id="rId1"/>
@@ -27,14 +27,6 @@
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -43,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="583">
   <si>
     <t>BN01</t>
   </si>
@@ -1784,15 +1776,31 @@
   </si>
   <si>
     <t>Illinois House</t>
+  </si>
+  <si>
+    <t>CLT18_duncan_manor_1</t>
+  </si>
+  <si>
+    <t>http://www.idaillinois.org/cdm/landingpage/collection/tdl</t>
+  </si>
+  <si>
+    <t>Magazine cover illustration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1933,79 +1941,80 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2356,13 +2365,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
@@ -2372,7 +2381,7 @@
     <col min="6" max="6" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="18" customFormat="1" ht="15">
       <c r="A1" s="18" t="s">
         <v>486</v>
       </c>
@@ -2395,7 +2404,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -2418,7 +2427,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>74</v>
       </c>
@@ -2441,7 +2450,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>74</v>
       </c>
@@ -2464,7 +2473,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>69</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>86</v>
       </c>
@@ -2504,7 +2513,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>94</v>
       </c>
@@ -2524,7 +2533,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>101</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>86</v>
       </c>
@@ -2564,7 +2573,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>86</v>
       </c>
@@ -2581,7 +2590,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>86</v>
       </c>
@@ -2598,7 +2607,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
@@ -2618,7 +2627,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>60</v>
       </c>
@@ -2681,7 +2690,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>60</v>
       </c>
@@ -2698,7 +2707,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>53</v>
       </c>
@@ -2718,7 +2727,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>53</v>
       </c>
@@ -2738,7 +2747,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>38</v>
       </c>
@@ -2758,7 +2767,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>38</v>
       </c>
@@ -2778,7 +2787,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>38</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>464</v>
       </c>
@@ -2815,7 +2824,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>184</v>
       </c>
@@ -2835,7 +2844,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="18" t="s">
         <v>184</v>
       </c>
@@ -2855,7 +2864,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>452</v>
       </c>
@@ -2875,7 +2884,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>452</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="18" t="s">
         <v>451</v>
       </c>
@@ -2912,7 +2921,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>191</v>
       </c>
@@ -2932,7 +2941,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>191</v>
       </c>
@@ -2952,7 +2961,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="18" t="s">
         <v>197</v>
       </c>
@@ -2969,7 +2978,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="18" t="s">
         <v>201</v>
       </c>
@@ -2989,7 +2998,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="18" t="s">
         <v>454</v>
       </c>
@@ -3009,7 +3018,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="18" t="s">
         <v>454</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="18" t="s">
         <v>455</v>
       </c>
@@ -3046,7 +3055,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="18" t="s">
         <v>206</v>
       </c>
@@ -3066,7 +3075,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="18" t="s">
         <v>211</v>
       </c>
@@ -3083,7 +3092,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="18" t="s">
         <v>94</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="18" t="s">
         <v>0</v>
       </c>
@@ -3113,8 +3122,8 @@
       <c r="C38" s="18">
         <v>1930</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>1</v>
+      <c r="D38" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>2</v>
@@ -3123,7 +3132,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="18" t="s">
         <v>0</v>
       </c>
@@ -3146,7 +3155,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="18" t="s">
         <v>5</v>
       </c>
@@ -3169,7 +3178,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="18" t="s">
         <v>101</v>
       </c>
@@ -3189,7 +3198,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="18" t="s">
         <v>101</v>
       </c>
@@ -3209,7 +3218,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="18" t="s">
         <v>101</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="18" t="s">
         <v>112</v>
       </c>
@@ -3249,7 +3258,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="18" t="s">
         <v>112</v>
       </c>
@@ -3269,7 +3278,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="18" t="s">
         <v>112</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="18" t="s">
         <v>121</v>
       </c>
@@ -3309,7 +3318,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>126</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="18" t="s">
         <v>126</v>
       </c>
@@ -3343,7 +3352,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="18" t="s">
         <v>132</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="18" t="s">
         <v>132</v>
       </c>
@@ -3377,7 +3386,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="18" t="s">
         <v>138</v>
       </c>
@@ -3394,7 +3403,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="18" t="s">
         <v>138</v>
       </c>
@@ -3411,7 +3420,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="18" t="s">
         <v>138</v>
       </c>
@@ -3428,7 +3437,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="18" t="s">
         <v>138</v>
       </c>
@@ -3445,7 +3454,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="18" t="s">
         <v>148</v>
       </c>
@@ -3462,7 +3471,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="18" t="s">
         <v>148</v>
       </c>
@@ -3479,7 +3488,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="18" t="s">
         <v>148</v>
       </c>
@@ -3496,7 +3505,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="18" t="s">
         <v>156</v>
       </c>
@@ -3516,7 +3525,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="18" t="s">
         <v>32</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="18" t="s">
         <v>32</v>
       </c>
@@ -3550,7 +3559,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="18" t="s">
         <v>164</v>
       </c>
@@ -3567,7 +3576,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>164</v>
       </c>
@@ -3584,7 +3593,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>159</v>
       </c>
@@ -3601,7 +3610,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="18" t="s">
         <v>159</v>
       </c>
@@ -3621,7 +3630,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="18" t="s">
         <v>456</v>
       </c>
@@ -3638,7 +3647,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="18" t="s">
         <v>406</v>
       </c>
@@ -3655,7 +3664,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="18" t="s">
         <v>406</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="18" t="s">
         <v>38</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="18" t="s">
         <v>374</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="18" t="s">
         <v>374</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="18" t="s">
         <v>18</v>
       </c>
@@ -3752,7 +3761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="18" t="s">
         <v>482</v>
       </c>
@@ -3769,7 +3778,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="18" t="s">
         <v>482</v>
       </c>
@@ -3786,7 +3795,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="18" t="s">
         <v>38</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="18" t="s">
         <v>11</v>
       </c>
@@ -3826,7 +3835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="18" t="s">
         <v>482</v>
       </c>
@@ -3843,7 +3852,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="18" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +3869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="18" t="s">
         <v>5</v>
       </c>
@@ -3877,7 +3886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="18" t="s">
         <v>21</v>
       </c>
@@ -3894,7 +3903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="18" t="s">
         <v>60</v>
       </c>
@@ -3914,7 +3923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="18" t="s">
         <v>74</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="18" t="s">
         <v>482</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="18" t="s">
         <v>11</v>
       </c>
@@ -3971,7 +3980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="18" t="s">
         <v>456</v>
       </c>
@@ -3988,7 +3997,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="18" t="s">
         <v>11</v>
       </c>
@@ -4008,7 +4017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="18" t="s">
         <v>404</v>
       </c>
@@ -4028,7 +4037,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="18" t="s">
         <v>393</v>
       </c>
@@ -4045,7 +4054,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="18" t="s">
         <v>453</v>
       </c>
@@ -4059,7 +4068,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="18" t="s">
         <v>390</v>
       </c>
@@ -4079,7 +4088,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="18" t="s">
         <v>288</v>
       </c>
@@ -4099,7 +4108,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="18" t="s">
         <v>172</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="18" t="s">
         <v>172</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="18" t="s">
         <v>172</v>
       </c>
@@ -4159,7 +4168,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="18" t="s">
         <v>172</v>
       </c>
@@ -4179,7 +4188,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="18" t="s">
         <v>473</v>
       </c>
@@ -4199,7 +4208,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="18" t="s">
         <v>473</v>
       </c>
@@ -4219,7 +4228,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="18" t="s">
         <v>406</v>
       </c>
@@ -4233,7 +4242,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="18" t="s">
         <v>343</v>
       </c>
@@ -4244,7 +4253,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="18" t="s">
         <v>0</v>
       </c>
@@ -4259,7 +4268,7 @@
       </c>
       <c r="F100" s="9"/>
     </row>
-    <row r="101" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="18" t="s">
         <v>5</v>
       </c>
@@ -4271,7 +4280,7 @@
       </c>
       <c r="F101" s="9"/>
     </row>
-    <row r="102" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="18" t="s">
         <v>338</v>
       </c>
@@ -4279,7 +4288,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="18" t="s">
         <v>388</v>
       </c>
@@ -4287,7 +4296,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="18" t="s">
         <v>457</v>
       </c>
@@ -4296,7 +4305,7 @@
       </c>
       <c r="F104" s="9"/>
     </row>
-    <row r="105" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="18" t="s">
         <v>458</v>
       </c>
@@ -4305,7 +4314,7 @@
       </c>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="18" t="s">
         <v>181</v>
       </c>
@@ -4319,7 +4328,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="18" t="s">
         <v>466</v>
       </c>
@@ -4327,7 +4336,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="18" t="s">
         <v>472</v>
       </c>
@@ -4335,7 +4344,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="18" t="s">
         <v>472</v>
       </c>
@@ -4343,8 +4352,28 @@
         <v>513</v>
       </c>
     </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="C110">
+        <v>1976</v>
+      </c>
+      <c r="D110" t="s">
+        <v>278</v>
+      </c>
+      <c r="E110" t="s">
+        <v>582</v>
+      </c>
+      <c r="F110" t="s">
+        <v>581</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G109">
+  <sortState ref="A2:G109">
     <sortCondition ref="F2:F109"/>
   </sortState>
   <hyperlinks>
@@ -4459,12 +4488,12 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="30.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="32" t="s">
         <v>486</v>
       </c>
@@ -4490,7 +4519,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="14" t="s">
         <v>280</v>
       </c>
@@ -4516,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>453</v>
       </c>
@@ -4542,7 +4571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="14" t="s">
         <v>288</v>
       </c>
@@ -4564,7 +4593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="14" t="s">
         <v>452</v>
       </c>
@@ -4590,7 +4619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="14" t="s">
         <v>451</v>
       </c>
@@ -4612,7 +4641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="14" t="s">
         <v>292</v>
       </c>
@@ -4634,7 +4663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
         <v>303</v>
       </c>
@@ -4658,7 +4687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
         <v>296</v>
       </c>
@@ -4676,7 +4705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="14" t="s">
         <v>457</v>
       </c>
@@ -4700,7 +4729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="14" t="s">
         <v>458</v>
       </c>
@@ -4724,7 +4753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="14" t="s">
         <v>298</v>
       </c>
@@ -4750,7 +4779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="14" t="s">
         <v>454</v>
       </c>
@@ -4776,7 +4805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="14" t="s">
         <v>455</v>
       </c>
@@ -4802,7 +4831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="14" t="s">
         <v>206</v>
       </c>
@@ -4822,7 +4851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="14" t="s">
         <v>172</v>
       </c>
@@ -4844,7 +4873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="14" t="s">
         <v>277</v>
       </c>
@@ -4870,7 +4899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="18" t="s">
         <v>94</v>
       </c>
@@ -4888,7 +4917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="18" t="s">
         <v>461</v>
       </c>
@@ -4912,7 +4941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="18" t="s">
         <v>408</v>
       </c>
@@ -4932,7 +4961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="18" t="s">
         <v>0</v>
       </c>
@@ -4958,7 +4987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="18" t="s">
         <v>374</v>
       </c>
@@ -4982,7 +5011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="18" t="s">
         <v>5</v>
       </c>
@@ -5008,7 +5037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="18" t="s">
         <v>393</v>
       </c>
@@ -5026,7 +5055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="18" t="s">
         <v>112</v>
       </c>
@@ -5048,7 +5077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="18" t="s">
         <v>159</v>
       </c>
@@ -5070,7 +5099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="18" t="s">
         <v>32</v>
       </c>
@@ -5096,7 +5125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="18" t="s">
         <v>11</v>
       </c>
@@ -5122,7 +5151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="18" t="s">
         <v>18</v>
       </c>
@@ -5146,7 +5175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="18" t="s">
         <v>69</v>
       </c>
@@ -5172,7 +5201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="18" t="s">
         <v>347</v>
       </c>
@@ -5198,7 +5227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="18" t="s">
         <v>148</v>
       </c>
@@ -5218,7 +5247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="18" t="s">
         <v>378</v>
       </c>
@@ -5238,7 +5267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="18" t="s">
         <v>343</v>
       </c>
@@ -5264,7 +5293,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="18" t="s">
         <v>53</v>
       </c>
@@ -5290,7 +5319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="18" t="s">
         <v>21</v>
       </c>
@@ -5316,7 +5345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="18" t="s">
         <v>86</v>
       </c>
@@ -5342,7 +5371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="18" t="s">
         <v>463</v>
       </c>
@@ -5368,7 +5397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="18" t="s">
         <v>74</v>
       </c>
@@ -5394,7 +5423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="18" t="s">
         <v>156</v>
       </c>
@@ -5418,7 +5447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="18" t="s">
         <v>406</v>
       </c>
@@ -5436,7 +5465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="18" t="s">
         <v>464</v>
       </c>
@@ -5462,7 +5491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
@@ -5488,7 +5517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="18" t="s">
         <v>38</v>
       </c>
@@ -5512,7 +5541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="18" t="s">
         <v>404</v>
       </c>
@@ -5530,7 +5559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="18" t="s">
         <v>164</v>
       </c>
@@ -5552,7 +5581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="18" t="s">
         <v>388</v>
       </c>
@@ -5570,7 +5599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="18" t="s">
         <v>101</v>
       </c>
@@ -5592,7 +5621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="18" t="s">
         <v>126</v>
       </c>
@@ -5612,7 +5641,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="18" t="s">
         <v>138</v>
       </c>
@@ -5632,7 +5661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="18" t="s">
         <v>390</v>
       </c>
@@ -5650,7 +5679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="14" t="s">
         <v>471</v>
       </c>
@@ -5668,7 +5697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="14" t="s">
         <v>466</v>
       </c>
@@ -5692,7 +5721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="14" t="s">
         <v>456</v>
       </c>
@@ -5718,7 +5747,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="14" t="s">
         <v>467</v>
       </c>
@@ -5744,7 +5773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="14" t="s">
         <v>468</v>
       </c>
@@ -5762,7 +5791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="14" t="s">
         <v>469</v>
       </c>
@@ -5780,7 +5809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="14" t="s">
         <v>470</v>
       </c>
@@ -5800,7 +5829,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="14" t="s">
         <v>473</v>
       </c>
@@ -5820,7 +5849,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="14" t="s">
         <v>472</v>
       </c>
@@ -5853,7 +5882,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="8" bestFit="1" customWidth="1"/>
@@ -5868,7 +5897,7 @@
     <col min="11" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="28" customFormat="1">
       <c r="A1" s="28" t="s">
         <v>486</v>
       </c>
@@ -5903,7 +5932,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>94</v>
       </c>
@@ -5923,7 +5952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>461</v>
       </c>
@@ -5949,7 +5978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>408</v>
       </c>
@@ -5971,7 +6000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -6004,7 +6033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>374</v>
       </c>
@@ -6033,7 +6062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -6065,7 +6094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>393</v>
       </c>
@@ -6082,7 +6111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>112</v>
       </c>
@@ -6105,7 +6134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>159</v>
       </c>
@@ -6131,7 +6160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>32</v>
       </c>
@@ -6163,7 +6192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
@@ -6192,7 +6221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
@@ -6221,7 +6250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>69</v>
       </c>
@@ -6253,7 +6282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>347</v>
       </c>
@@ -6282,7 +6311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>148</v>
       </c>
@@ -6302,7 +6331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>378</v>
       </c>
@@ -6325,7 +6354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>343</v>
       </c>
@@ -6357,7 +6386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>53</v>
       </c>
@@ -6389,7 +6418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>86</v>
       </c>
@@ -6421,7 +6450,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
@@ -6450,7 +6479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>463</v>
       </c>
@@ -6482,7 +6511,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>74</v>
       </c>
@@ -6514,7 +6543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="18" t="s">
         <v>156</v>
       </c>
@@ -6543,7 +6572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>406</v>
       </c>
@@ -6563,7 +6592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>464</v>
       </c>
@@ -6595,7 +6624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="18" t="s">
         <v>60</v>
       </c>
@@ -6624,7 +6653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>38</v>
       </c>
@@ -6650,7 +6679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>404</v>
       </c>
@@ -6667,7 +6696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="18" t="s">
         <v>164</v>
       </c>
@@ -6690,7 +6719,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="18" t="s">
         <v>388</v>
       </c>
@@ -6713,7 +6742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="18" t="s">
         <v>101</v>
       </c>
@@ -6739,7 +6768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="18" t="s">
         <v>126</v>
       </c>
@@ -6759,7 +6788,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="18" t="s">
         <v>138</v>
       </c>
@@ -6779,7 +6808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="18" t="s">
         <v>390</v>
       </c>
@@ -6796,7 +6825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="21" t="s">
         <v>462</v>
       </c>
@@ -6823,7 +6852,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="18" t="s">
         <v>465</v>
       </c>
@@ -6849,7 +6878,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="18" t="s">
         <v>330</v>
       </c>
@@ -6875,7 +6904,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="18" t="s">
         <v>334</v>
       </c>
@@ -6895,7 +6924,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="18" t="s">
         <v>335</v>
       </c>
@@ -6921,7 +6950,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="18" t="s">
         <v>338</v>
       </c>
@@ -6947,7 +6976,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="18" t="s">
         <v>353</v>
       </c>
@@ -6967,7 +6996,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="18" t="s">
         <v>121</v>
       </c>
@@ -6981,7 +7010,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="16" t="s">
         <v>132</v>
       </c>
@@ -7002,7 +7031,7 @@
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="18" t="s">
         <v>386</v>
       </c>
@@ -7013,7 +7042,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="18" t="s">
         <v>391</v>
       </c>
@@ -7024,7 +7053,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="18" t="s">
         <v>396</v>
       </c>
@@ -7035,7 +7064,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>398</v>
       </c>
@@ -7046,7 +7075,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="18" t="s">
         <v>400</v>
       </c>
@@ -7057,7 +7086,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="18" t="s">
         <v>402</v>
       </c>
@@ -7070,11 +7099,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K50" xr:uid="{D5878086-6F29-4025-9E5A-9C49DB342A07}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K50">
+    <sortState ref="A2:K50">
       <sortCondition ref="K1:K50"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K50">
+  <sortState ref="A2:K50">
     <sortCondition ref="K2:K50"/>
   </sortState>
   <hyperlinks>
@@ -7103,7 +7132,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="6.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="5" bestFit="1" customWidth="1"/>
@@ -7116,7 +7145,7 @@
     <col min="11" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="32" customFormat="1" ht="15">
       <c r="A1" s="32" t="s">
         <v>486</v>
       </c>
@@ -7151,7 +7180,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>280</v>
       </c>
@@ -7184,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>453</v>
       </c>
@@ -7217,7 +7246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>288</v>
       </c>
@@ -7246,7 +7275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>452</v>
       </c>
@@ -7281,7 +7310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>451</v>
       </c>
@@ -7312,7 +7341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>292</v>
       </c>
@@ -7341,7 +7370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>303</v>
       </c>
@@ -7370,7 +7399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>296</v>
       </c>
@@ -7391,7 +7420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>457</v>
       </c>
@@ -7424,7 +7453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>458</v>
       </c>
@@ -7455,7 +7484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>298</v>
       </c>
@@ -7490,7 +7519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>454</v>
       </c>
@@ -7523,7 +7552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>455</v>
       </c>
@@ -7556,7 +7585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>206</v>
       </c>
@@ -7581,7 +7610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>172</v>
       </c>
@@ -7610,7 +7639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>277</v>
       </c>
@@ -7641,7 +7670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>459</v>
       </c>
@@ -7667,7 +7696,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="16" t="s">
         <v>460</v>
       </c>
@@ -7692,7 +7721,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>181</v>
       </c>
@@ -7713,7 +7742,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>184</v>
       </c>
@@ -7729,7 +7758,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>191</v>
       </c>
@@ -7750,7 +7779,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="16" t="s">
         <v>197</v>
       </c>
@@ -7769,7 +7798,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>201</v>
       </c>
@@ -7788,7 +7817,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>211</v>
       </c>
@@ -7809,7 +7838,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>284</v>
       </c>
@@ -7836,11 +7865,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K26" xr:uid="{D1300F5A-09ED-45F7-8847-978C8A0A826D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
+    <sortState ref="A2:K26">
       <sortCondition ref="K1:K26"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
+  <sortState ref="A2:K26">
     <sortCondition ref="K2:K26"/>
   </sortState>
   <hyperlinks>
@@ -7861,11 +7890,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="8" bestFit="1" customWidth="1"/>
@@ -7880,7 +7909,7 @@
     <col min="11" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="28" customFormat="1">
       <c r="A1" s="28" t="s">
         <v>486</v>
       </c>
@@ -7915,7 +7944,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
         <v>471</v>
       </c>
@@ -7938,7 +7967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="14" t="s">
         <v>466</v>
       </c>
@@ -7967,7 +7996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="14" t="s">
         <v>456</v>
       </c>
@@ -8000,7 +8029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="14" t="s">
         <v>467</v>
       </c>
@@ -8033,7 +8062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="14" t="s">
         <v>468</v>
       </c>
@@ -8056,7 +8085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="14" t="s">
         <v>469</v>
       </c>
@@ -8079,7 +8108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="14" t="s">
         <v>470</v>
       </c>
@@ -8106,7 +8135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="14" t="s">
         <v>473</v>
       </c>
@@ -8133,7 +8162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="14" t="s">
         <v>472</v>
       </c>
@@ -8158,7 +8187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="14" t="s">
         <v>432</v>
       </c>
@@ -8182,7 +8211,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -8194,7 +8223,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -8208,11 +8237,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K13" xr:uid="{967C1320-EF2B-4413-9CB5-1851DE2777A2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
+    <sortState ref="A2:K13">
       <sortCondition ref="K1:K13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K10">
+  <sortState ref="A2:K10">
     <sortCondition ref="K2:K10"/>
   </sortState>
   <hyperlinks>
@@ -8238,7 +8267,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
@@ -8252,7 +8281,7 @@
     <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="18" customFormat="1" ht="15">
       <c r="A1" s="18" t="s">
         <v>486</v>
       </c>
@@ -8281,7 +8310,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>474</v>
       </c>
@@ -8297,7 +8326,7 @@
       <c r="F2" s="19"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>475</v>
       </c>
@@ -8318,7 +8347,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>476</v>
       </c>
@@ -8344,7 +8373,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>477</v>
       </c>
@@ -8362,7 +8391,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>478</v>
       </c>
@@ -8385,7 +8414,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>479</v>
       </c>
@@ -8403,7 +8432,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>480</v>
       </c>
@@ -8424,7 +8453,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>481</v>
       </c>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\01_active-projects\route-66\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcrpc\projects\route-66\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C964C58-B9B4-4AEC-A47D-B2E3EC787030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E293BE-C6B1-4B65-826D-AD30CAB8DB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25800" yWindow="1560" windowWidth="21600" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24330" yWindow="1980" windowWidth="21600" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTOS" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="584">
   <si>
     <t>BN01</t>
   </si>
@@ -1785,15 +1785,25 @@
   </si>
   <si>
     <t>Magazine cover illustration</t>
+  </si>
+  <si>
+    <t>BN48_beichs-candy_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1941,79 +1951,80 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2367,11 +2378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
@@ -2381,7 +2392,7 @@
     <col min="6" max="6" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" ht="15">
+    <row r="1" spans="1:7" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>486</v>
       </c>
@@ -2404,7 +2415,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -2427,7 +2438,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>74</v>
       </c>
@@ -2450,7 +2461,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>74</v>
       </c>
@@ -2473,7 +2484,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>69</v>
       </c>
@@ -2493,7 +2504,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>86</v>
       </c>
@@ -2513,7 +2524,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>94</v>
       </c>
@@ -2533,7 +2544,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>101</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>86</v>
       </c>
@@ -2573,7 +2584,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>86</v>
       </c>
@@ -2590,7 +2601,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>86</v>
       </c>
@@ -2607,7 +2618,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
@@ -2627,7 +2638,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
@@ -2650,7 +2661,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>21</v>
       </c>
@@ -2670,7 +2681,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>60</v>
       </c>
@@ -2690,7 +2701,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>60</v>
       </c>
@@ -2707,7 +2718,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>53</v>
       </c>
@@ -2727,7 +2738,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>53</v>
       </c>
@@ -2747,7 +2758,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>38</v>
       </c>
@@ -2767,7 +2778,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>38</v>
       </c>
@@ -2787,7 +2798,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>38</v>
       </c>
@@ -2807,7 +2818,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>464</v>
       </c>
@@ -2824,7 +2835,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>184</v>
       </c>
@@ -2844,7 +2855,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>184</v>
       </c>
@@ -2864,7 +2875,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>452</v>
       </c>
@@ -2884,7 +2895,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>452</v>
       </c>
@@ -2904,7 +2915,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>451</v>
       </c>
@@ -2921,7 +2932,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>191</v>
       </c>
@@ -2941,7 +2952,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>191</v>
       </c>
@@ -2961,7 +2972,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>197</v>
       </c>
@@ -2978,7 +2989,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>201</v>
       </c>
@@ -2998,7 +3009,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>454</v>
       </c>
@@ -3018,7 +3029,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>454</v>
       </c>
@@ -3038,7 +3049,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>455</v>
       </c>
@@ -3055,7 +3066,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>206</v>
       </c>
@@ -3075,7 +3086,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>211</v>
       </c>
@@ -3092,7 +3103,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>94</v>
       </c>
@@ -3112,7 +3123,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>0</v>
       </c>
@@ -3132,7 +3143,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3166,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>5</v>
       </c>
@@ -3178,7 +3189,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>101</v>
       </c>
@@ -3198,7 +3209,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>101</v>
       </c>
@@ -3218,7 +3229,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>101</v>
       </c>
@@ -3238,7 +3249,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>112</v>
       </c>
@@ -3258,7 +3269,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>112</v>
       </c>
@@ -3278,7 +3289,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>112</v>
       </c>
@@ -3298,7 +3309,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>121</v>
       </c>
@@ -3318,7 +3329,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>126</v>
       </c>
@@ -3335,7 +3346,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>126</v>
       </c>
@@ -3352,7 +3363,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>132</v>
       </c>
@@ -3369,7 +3380,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>132</v>
       </c>
@@ -3386,7 +3397,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>138</v>
       </c>
@@ -3403,7 +3414,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>138</v>
       </c>
@@ -3420,7 +3431,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>138</v>
       </c>
@@ -3437,7 +3448,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="55" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>138</v>
       </c>
@@ -3454,7 +3465,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="56" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>148</v>
       </c>
@@ -3471,7 +3482,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>148</v>
       </c>
@@ -3488,7 +3499,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>148</v>
       </c>
@@ -3505,7 +3516,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>156</v>
       </c>
@@ -3525,7 +3536,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="60" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>32</v>
       </c>
@@ -3542,7 +3553,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
         <v>32</v>
       </c>
@@ -3559,7 +3570,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>164</v>
       </c>
@@ -3576,7 +3587,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>164</v>
       </c>
@@ -3593,7 +3604,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>159</v>
       </c>
@@ -3610,7 +3621,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>159</v>
       </c>
@@ -3630,7 +3641,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="66" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>456</v>
       </c>
@@ -3647,7 +3658,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>406</v>
       </c>
@@ -3664,12 +3675,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="B68" s="18" t="s">
-        <v>552</v>
+      <c r="B68" s="37" t="s">
+        <v>583</v>
       </c>
       <c r="C68" s="18">
         <v>1934</v>
@@ -3684,7 +3695,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>38</v>
       </c>
@@ -3704,7 +3715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>374</v>
       </c>
@@ -3724,7 +3735,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18" t="s">
         <v>374</v>
       </c>
@@ -3744,7 +3755,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>18</v>
       </c>
@@ -3761,7 +3772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>482</v>
       </c>
@@ -3778,7 +3789,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="74" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>482</v>
       </c>
@@ -3795,7 +3806,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>38</v>
       </c>
@@ -3815,7 +3826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>11</v>
       </c>
@@ -3835,7 +3846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="77" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>482</v>
       </c>
@@ -3852,7 +3863,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="78" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>5</v>
       </c>
@@ -3869,7 +3880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>5</v>
       </c>
@@ -3886,7 +3897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>21</v>
       </c>
@@ -3903,7 +3914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="81" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>60</v>
       </c>
@@ -3923,7 +3934,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>74</v>
       </c>
@@ -3943,7 +3954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>482</v>
       </c>
@@ -3960,7 +3971,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>11</v>
       </c>
@@ -3980,7 +3991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>456</v>
       </c>
@@ -3997,7 +4008,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>11</v>
       </c>
@@ -4017,7 +4028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>404</v>
       </c>
@@ -4037,7 +4048,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>393</v>
       </c>
@@ -4054,7 +4065,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>453</v>
       </c>
@@ -4068,7 +4079,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>390</v>
       </c>
@@ -4088,7 +4099,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="91" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>288</v>
       </c>
@@ -4108,7 +4119,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="92" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>172</v>
       </c>
@@ -4128,7 +4139,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="93" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>172</v>
       </c>
@@ -4148,7 +4159,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="94" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>172</v>
       </c>
@@ -4168,7 +4179,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="95" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>172</v>
       </c>
@@ -4188,7 +4199,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="96" spans="1:7" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>473</v>
       </c>
@@ -4208,7 +4219,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="97" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>473</v>
       </c>
@@ -4228,7 +4239,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="98" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>406</v>
       </c>
@@ -4242,7 +4253,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>343</v>
       </c>
@@ -4253,7 +4264,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>0</v>
       </c>
@@ -4268,7 +4279,7 @@
       </c>
       <c r="F100" s="9"/>
     </row>
-    <row r="101" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>5</v>
       </c>
@@ -4280,7 +4291,7 @@
       </c>
       <c r="F101" s="9"/>
     </row>
-    <row r="102" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>338</v>
       </c>
@@ -4288,7 +4299,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>388</v>
       </c>
@@ -4296,7 +4307,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>457</v>
       </c>
@@ -4305,7 +4316,7 @@
       </c>
       <c r="F104" s="9"/>
     </row>
-    <row r="105" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="105" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>458</v>
       </c>
@@ -4314,7 +4325,7 @@
       </c>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="106" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>181</v>
       </c>
@@ -4328,7 +4339,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="107" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>466</v>
       </c>
@@ -4336,7 +4347,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="108" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>472</v>
       </c>
@@ -4344,7 +4355,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="109" spans="1:6" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>472</v>
       </c>
@@ -4352,7 +4363,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
         <v>277</v>
       </c>
@@ -4373,7 +4384,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G109">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G109">
     <sortCondition ref="F2:F109"/>
   </sortState>
   <hyperlinks>
@@ -4484,16 +4495,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C9AB8B-3370-4C9A-927A-E440A7D8143E}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>486</v>
       </c>
@@ -4519,7 +4530,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>280</v>
       </c>
@@ -4545,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>453</v>
       </c>
@@ -4571,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>288</v>
       </c>
@@ -4593,7 +4604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>452</v>
       </c>
@@ -4619,7 +4630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>451</v>
       </c>
@@ -4641,7 +4652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>292</v>
       </c>
@@ -4663,7 +4674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>303</v>
       </c>
@@ -4687,7 +4698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>296</v>
       </c>
@@ -4705,7 +4716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>457</v>
       </c>
@@ -4729,7 +4740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>458</v>
       </c>
@@ -4753,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>298</v>
       </c>
@@ -4779,7 +4790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>454</v>
       </c>
@@ -4805,7 +4816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>455</v>
       </c>
@@ -4831,7 +4842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>206</v>
       </c>
@@ -4851,7 +4862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>172</v>
       </c>
@@ -4873,7 +4884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>277</v>
       </c>
@@ -4899,7 +4910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>94</v>
       </c>
@@ -4917,7 +4928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>461</v>
       </c>
@@ -4941,7 +4952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>408</v>
       </c>
@@ -4961,7 +4972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>0</v>
       </c>
@@ -4987,7 +4998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>374</v>
       </c>
@@ -5011,7 +5022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>5</v>
       </c>
@@ -5037,7 +5048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>393</v>
       </c>
@@ -5055,7 +5066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>112</v>
       </c>
@@ -5077,7 +5088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>159</v>
       </c>
@@ -5099,7 +5110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>32</v>
       </c>
@@ -5125,7 +5136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>11</v>
       </c>
@@ -5151,7 +5162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>18</v>
       </c>
@@ -5175,7 +5186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>69</v>
       </c>
@@ -5201,7 +5212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>347</v>
       </c>
@@ -5227,7 +5238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>148</v>
       </c>
@@ -5247,7 +5258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>378</v>
       </c>
@@ -5267,7 +5278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>343</v>
       </c>
@@ -5293,7 +5304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>53</v>
       </c>
@@ -5319,7 +5330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>21</v>
       </c>
@@ -5345,7 +5356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>86</v>
       </c>
@@ -5371,7 +5382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>463</v>
       </c>
@@ -5397,7 +5408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>74</v>
       </c>
@@ -5423,7 +5434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>156</v>
       </c>
@@ -5447,7 +5458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>406</v>
       </c>
@@ -5465,7 +5476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>464</v>
       </c>
@@ -5491,7 +5502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
@@ -5517,7 +5528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>38</v>
       </c>
@@ -5541,7 +5552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>404</v>
       </c>
@@ -5559,7 +5570,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>164</v>
       </c>
@@ -5581,7 +5592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>388</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>101</v>
       </c>
@@ -5621,7 +5632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>126</v>
       </c>
@@ -5641,7 +5652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>138</v>
       </c>
@@ -5661,7 +5672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>390</v>
       </c>
@@ -5679,7 +5690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>471</v>
       </c>
@@ -5697,7 +5708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>466</v>
       </c>
@@ -5721,7 +5732,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>456</v>
       </c>
@@ -5747,7 +5758,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>467</v>
       </c>
@@ -5773,7 +5784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>468</v>
       </c>
@@ -5791,7 +5802,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>469</v>
       </c>
@@ -5809,7 +5820,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>470</v>
       </c>
@@ -5829,7 +5840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>473</v>
       </c>
@@ -5849,7 +5860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>472</v>
       </c>
@@ -5882,7 +5893,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="8" bestFit="1" customWidth="1"/>
@@ -5897,7 +5908,7 @@
     <col min="11" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="28" customFormat="1">
+    <row r="1" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>486</v>
       </c>
@@ -5932,7 +5943,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>94</v>
       </c>
@@ -5952,7 +5963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>461</v>
       </c>
@@ -5978,7 +5989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>408</v>
       </c>
@@ -6000,7 +6011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
@@ -6033,7 +6044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>374</v>
       </c>
@@ -6062,7 +6073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
@@ -6094,7 +6105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>393</v>
       </c>
@@ -6111,7 +6122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>112</v>
       </c>
@@ -6134,7 +6145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>159</v>
       </c>
@@ -6160,7 +6171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>32</v>
       </c>
@@ -6192,7 +6203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
@@ -6221,7 +6232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
@@ -6250,7 +6261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>69</v>
       </c>
@@ -6282,7 +6293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>347</v>
       </c>
@@ -6311,7 +6322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>148</v>
       </c>
@@ -6331,7 +6342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>378</v>
       </c>
@@ -6354,7 +6365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>343</v>
       </c>
@@ -6386,7 +6397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>53</v>
       </c>
@@ -6418,7 +6429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>86</v>
       </c>
@@ -6450,7 +6461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
@@ -6479,7 +6490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>463</v>
       </c>
@@ -6511,7 +6522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>74</v>
       </c>
@@ -6543,7 +6554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>156</v>
       </c>
@@ -6572,7 +6583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>406</v>
       </c>
@@ -6592,7 +6603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>464</v>
       </c>
@@ -6624,7 +6635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>60</v>
       </c>
@@ -6653,7 +6664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>38</v>
       </c>
@@ -6679,7 +6690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>404</v>
       </c>
@@ -6696,7 +6707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>164</v>
       </c>
@@ -6719,7 +6730,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>388</v>
       </c>
@@ -6742,7 +6753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>101</v>
       </c>
@@ -6768,7 +6779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>126</v>
       </c>
@@ -6788,7 +6799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>138</v>
       </c>
@@ -6808,7 +6819,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>390</v>
       </c>
@@ -6825,7 +6836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>462</v>
       </c>
@@ -6852,7 +6863,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>465</v>
       </c>
@@ -6878,7 +6889,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>330</v>
       </c>
@@ -6904,7 +6915,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>334</v>
       </c>
@@ -6924,7 +6935,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>335</v>
       </c>
@@ -6950,7 +6961,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>338</v>
       </c>
@@ -6976,7 +6987,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>353</v>
       </c>
@@ -6996,7 +7007,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>121</v>
       </c>
@@ -7010,7 +7021,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>132</v>
       </c>
@@ -7031,7 +7042,7 @@
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>386</v>
       </c>
@@ -7042,7 +7053,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>391</v>
       </c>
@@ -7053,7 +7064,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>396</v>
       </c>
@@ -7064,7 +7075,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>398</v>
       </c>
@@ -7075,7 +7086,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>400</v>
       </c>
@@ -7086,7 +7097,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>402</v>
       </c>
@@ -7099,11 +7110,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K50" xr:uid="{D5878086-6F29-4025-9E5A-9C49DB342A07}">
-    <sortState ref="A2:K50">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K50">
       <sortCondition ref="K1:K50"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:K50">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K50">
     <sortCondition ref="K2:K50"/>
   </sortState>
   <hyperlinks>
@@ -7132,7 +7143,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="5" bestFit="1" customWidth="1"/>
@@ -7145,7 +7156,7 @@
     <col min="11" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1" ht="15">
+    <row r="1" spans="1:11" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>486</v>
       </c>
@@ -7180,7 +7191,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>280</v>
       </c>
@@ -7213,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>453</v>
       </c>
@@ -7246,7 +7257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>288</v>
       </c>
@@ -7275,7 +7286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>452</v>
       </c>
@@ -7310,7 +7321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>451</v>
       </c>
@@ -7341,7 +7352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>292</v>
       </c>
@@ -7370,7 +7381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>303</v>
       </c>
@@ -7399,7 +7410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>296</v>
       </c>
@@ -7420,7 +7431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>457</v>
       </c>
@@ -7453,7 +7464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>458</v>
       </c>
@@ -7484,7 +7495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>298</v>
       </c>
@@ -7519,7 +7530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>454</v>
       </c>
@@ -7552,7 +7563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>455</v>
       </c>
@@ -7585,7 +7596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>206</v>
       </c>
@@ -7610,7 +7621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>172</v>
       </c>
@@ -7639,7 +7650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>277</v>
       </c>
@@ -7670,7 +7681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>459</v>
       </c>
@@ -7696,7 +7707,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>460</v>
       </c>
@@ -7721,7 +7732,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>181</v>
       </c>
@@ -7742,7 +7753,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:11" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>184</v>
       </c>
@@ -7758,7 +7769,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>191</v>
       </c>
@@ -7779,7 +7790,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>197</v>
       </c>
@@ -7798,7 +7809,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>201</v>
       </c>
@@ -7817,7 +7828,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>211</v>
       </c>
@@ -7838,7 +7849,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>284</v>
       </c>
@@ -7865,11 +7876,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K26" xr:uid="{D1300F5A-09ED-45F7-8847-978C8A0A826D}">
-    <sortState ref="A2:K26">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
       <sortCondition ref="K1:K26"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:K26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
     <sortCondition ref="K2:K26"/>
   </sortState>
   <hyperlinks>
@@ -7894,7 +7905,7 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="8" bestFit="1" customWidth="1"/>
@@ -7909,7 +7920,7 @@
     <col min="11" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="28" customFormat="1">
+    <row r="1" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>486</v>
       </c>
@@ -7944,7 +7955,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>471</v>
       </c>
@@ -7967,7 +7978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>466</v>
       </c>
@@ -7996,7 +8007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>456</v>
       </c>
@@ -8029,7 +8040,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>467</v>
       </c>
@@ -8062,7 +8073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>468</v>
       </c>
@@ -8085,7 +8096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>469</v>
       </c>
@@ -8108,7 +8119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>470</v>
       </c>
@@ -8135,7 +8146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>473</v>
       </c>
@@ -8162,7 +8173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>472</v>
       </c>
@@ -8187,7 +8198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>432</v>
       </c>
@@ -8211,7 +8222,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -8223,7 +8234,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -8237,11 +8248,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K13" xr:uid="{967C1320-EF2B-4413-9CB5-1851DE2777A2}">
-    <sortState ref="A2:K13">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K13">
       <sortCondition ref="K1:K13"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:K10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K10">
     <sortCondition ref="K2:K10"/>
   </sortState>
   <hyperlinks>
@@ -8267,7 +8278,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
@@ -8281,7 +8292,7 @@
     <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="18" customFormat="1" ht="15">
+    <row r="1" spans="1:9" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>486</v>
       </c>
@@ -8310,7 +8321,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>474</v>
       </c>
@@ -8326,7 +8337,7 @@
       <c r="F2" s="19"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>475</v>
       </c>
@@ -8347,7 +8358,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>476</v>
       </c>
@@ -8373,7 +8384,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>477</v>
       </c>
@@ -8391,7 +8402,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>478</v>
       </c>
@@ -8414,7 +8425,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>479</v>
       </c>
@@ -8432,7 +8443,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>480</v>
       </c>
@@ -8453,7 +8464,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:9" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>481</v>
       </c>
